--- a/classfiers/greedy/welm/smote/greedy_welm_lin_smote_results.xlsx
+++ b/classfiers/greedy/welm/smote/greedy_welm_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7913043478260869</v>
+        <v>0.8210023866348448</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7725321888412017</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8192771084337348</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9012119264147018</v>
+        <v>0.9109804457814851</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7804347826086957</v>
+        <v>0.8114558472553699</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7577092511013216</v>
+        <v>0.8557692307692307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7730337078651686</v>
+        <v>0.8183908045977011</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9040101340492712</v>
+        <v>0.8755924170616114</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7891304347826087</v>
+        <v>0.7780429594272077</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7949260042283297</v>
+        <v>0.7657430730478588</v>
       </c>
       <c r="E4" t="n">
-        <v>0.908160756501182</v>
+        <v>0.8763766519823788</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.7947494033412887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7695652173913043</v>
+        <v>0.8221153846153846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7797356828193833</v>
+        <v>0.7990654205607476</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8976370510396976</v>
+        <v>0.8726303317535544</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8021739130434783</v>
+        <v>0.8038277511961722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7955555555555556</v>
+        <v>0.7982832618025751</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7973273942093542</v>
+        <v>0.8193832599118943</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9094089834515365</v>
+        <v>0.8992112283957778</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7891304347826087</v>
+        <v>0.8018156695709766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7790724425778766</v>
+        <v>0.8186154524600917</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7868992946665524</v>
+        <v>0.8043719333103873</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9040857702912778</v>
+        <v>0.8869582149949615</v>
       </c>
     </row>
   </sheetData>
